--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.434399999999998</v>
+        <v>-7.461599999999999</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.21769999999999</v>
+        <v>-22.22610000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.7734</v>
+        <v>15.7156</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.28060000000002</v>
+        <v>17.19270000000002</v>
       </c>
     </row>
     <row r="13">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.83589999999999</v>
+        <v>-21.8824</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.87489999999999</v>
+        <v>-19.97709999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.69549999999998</v>
+        <v>-20.40009999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -848,12 +848,12 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.62530000000001</v>
+        <v>16.5774</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.81</v>
+        <v>-21.93290000000001</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -862,15 +862,15 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.681</v>
+        <v>-7.810399999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>16.8272</v>
+        <v>16.8265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.07929999999997</v>
+        <v>-21.05369999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.683500000000002</v>
+        <v>-8.581900000000005</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.80089999999998</v>
+        <v>-20.94019999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.814600000000008</v>
+        <v>-8.610900000000008</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.056800000000001</v>
+        <v>-7.828199999999998</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.313699999999995</v>
+        <v>-7.204399999999997</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.48139999999999</v>
+        <v>16.2962</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.454599999999998</v>
+        <v>-7.312999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.651899999999997</v>
+        <v>-7.5933</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.9996</v>
+        <v>-21.9864</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.79090000000002</v>
+        <v>17.05690000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.595199999999998</v>
+        <v>-8.553499999999996</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.695200000000003</v>
+        <v>-7.867200000000004</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.59280000000001</v>
+        <v>-22.48540000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,10 +1406,10 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.2819</v>
+        <v>-8.373299999999997</v>
       </c>
       <c r="E57" t="n">
-        <v>16.5188</v>
+        <v>16.4861</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.19490000000001</v>
+        <v>-22.23549999999999</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.59060000000002</v>
+        <v>16.55580000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.47000000000002</v>
+        <v>17.45950000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61649999999999</v>
+        <v>-21.6035</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.32160000000001</v>
+        <v>17.30100000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.773999999999996</v>
+        <v>-7.829899999999996</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.08920000000002</v>
+        <v>-20.09860000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.82210000000001</v>
+        <v>-21.85340000000001</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.616</v>
+        <v>16.5707</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.619000000000002</v>
+        <v>-5.733000000000003</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.950900000000003</v>
+        <v>-8.080000000000002</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.49840000000003</v>
+        <v>-21.41680000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.708600000000001</v>
+        <v>-5.845800000000001</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.75329999999999</v>
+        <v>-21.01999999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.7975</v>
+        <v>15.84250000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.89250000000002</v>
+        <v>16.75730000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.0747</v>
+        <v>16.67549999999999</v>
       </c>
     </row>
   </sheetData>
